--- a/LEGO_parts_list.xlsx
+++ b/LEGO_parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\conf2022_sci\cad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\LEGO_Rotary_Inverted_Pendulum_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58AA130-83C4-4FD9-89B4-25E686B1F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B39A6-075D-4475-9601-630E42686EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="272" yWindow="951" windowWidth="24534" windowHeight="12783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="421" windowWidth="23556" windowHeight="12784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="body_step6" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Technic, Liftarm Thin 1 x 5 - Axle Holes</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Technic Bush 1/2 Smooth</t>
   </si>
   <si>
-    <t>Rubber Yellow</t>
-  </si>
-  <si>
     <t>Technic, Liftarm Thick 1 x 15</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Technic, Liftarm Thick 1 x 2</t>
   </si>
   <si>
-    <t>Technic, Axle  7L</t>
-  </si>
-  <si>
     <t>Technic, Pin Connector Perpendicular 3 x 3 Bent with 4 Pins</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Technic, Liftarm, Modified Triangle Thin 3 x 5 with Short Supports</t>
-  </si>
-  <si>
-    <t>Flat Silver</t>
   </si>
   <si>
     <t>4265c</t>
@@ -111,20 +102,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Technic, Axle  1L with Pin with Friction Ridges</t>
-  </si>
-  <si>
-    <t>Technic, Axle  8L with Stop</t>
-  </si>
-  <si>
     <t>6538c</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Technic, Axle Connector 2L (Smooth with x Hole + Orientation)</t>
-  </si>
-  <si>
-    <t>Technic, Axle  9L</t>
   </si>
   <si>
     <t>Technic, Axle and Pin Connector Angled #6 - 90 degrees</t>
@@ -222,6 +204,100 @@
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384220</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384266</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24445337</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=60485614</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=111619379</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24447131</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24447302</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=35296360</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=26488550</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25084889</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384268</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=34693318</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384277</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384279</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=33207247</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25833089</t>
+  </si>
+  <si>
+    <t>Technic, Axle 1L with Pin with Friction Ridges</t>
+  </si>
+  <si>
+    <t>Technic, Axle 7L</t>
+  </si>
+  <si>
+    <t>Technic, Axle 8L with Stop</t>
+  </si>
+  <si>
+    <t>Technic, Axle 9L</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24640798</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=33211980</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=33211954</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941292</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384272</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25700131</t>
+  </si>
+  <si>
+    <t>https://afrel-shop.com/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Dark Gray</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>―</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -856,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +955,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,13 +1315,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
@@ -1252,40 +1331,42 @@
     <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="5"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="45.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2780</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1300,13 +1381,16 @@
         <f>D3*E3</f>
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3737</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1320,16 +1404,19 @@
       <c r="F4" s="5">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>6558</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -1341,8 +1428,11 @@
         <f>D5*E5</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>11478</v>
       </c>
@@ -1362,8 +1452,11 @@
         <f>D6*E6</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>14149</v>
       </c>
@@ -1383,13 +1476,16 @@
         <f>D7*E7</f>
         <v>1476</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>32014</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -1403,13 +1499,16 @@
       <c r="F8" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>32034</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -1423,16 +1522,19 @@
       <c r="F9" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>32278</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -1441,19 +1543,22 @@
         <v>163</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F24" si="0">D10*E10</f>
         <v>652</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>32524</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -1462,19 +1567,22 @@
         <v>28</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>42003</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -1483,19 +1591,22 @@
         <v>16</v>
       </c>
       <c r="F12" s="5">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>43093</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -1504,19 +1615,22 @@
         <v>5</v>
       </c>
       <c r="F13" s="5">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>43857</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1525,19 +1639,22 @@
         <v>38</v>
       </c>
       <c r="F14" s="5">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>44294</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1546,19 +1663,22 @@
         <v>16</v>
       </c>
       <c r="F15" s="5">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>55013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -1567,19 +1687,22 @@
         <v>13</v>
       </c>
       <c r="F16" s="5">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>55615</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>8</v>
@@ -1588,19 +1711,22 @@
         <v>98</v>
       </c>
       <c r="F17" s="5">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>784</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>60485</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -1609,19 +1735,22 @@
         <v>48</v>
       </c>
       <c r="F18" s="5">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>62462</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1630,19 +1759,22 @@
         <v>33</v>
       </c>
       <c r="F19" s="5">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>64178</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -1651,19 +1783,22 @@
         <v>348</v>
       </c>
       <c r="F20" s="5">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>1392</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>64179</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -1672,19 +1807,22 @@
         <v>268</v>
       </c>
       <c r="F21" s="5">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>2680</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>99773</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
         <v>13</v>
@@ -1693,19 +1831,22 @@
         <v>38</v>
       </c>
       <c r="F22" s="5">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>494</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -1714,16 +1855,19 @@
         <v>10</v>
       </c>
       <c r="F23" s="5">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1735,35 +1879,38 @@
         <v>12</v>
       </c>
       <c r="F24" s="5">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F26" s="6">
         <f>SUM(F3:F24)</f>
         <v>8884</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -1775,23 +1922,26 @@
         <f>D29*E29</f>
         <v>3960</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>92911</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -1799,15 +1949,15 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>99948</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
@@ -1815,15 +1965,30 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
       <c r="E34" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F34" s="6">
+        <f>SUM(F29)</f>
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="8">
         <f>F26+F29</f>
         <v>12844</v>
       </c>

--- a/LEGO_parts_list.xlsx
+++ b/LEGO_parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\LEGO_Rotary_Inverted_Pendulum_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B39A6-075D-4475-9601-630E42686EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726ABBE-7209-4735-B2BB-6EDDEC3BDBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="421" windowWidth="23556" windowHeight="12784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1535" yWindow="788" windowWidth="24534" windowHeight="12783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="body_step6" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://afrel-shop.com/shopdetail/000000000395</t>
-  </si>
-  <si>
     <t>EV3 replacement pack3</t>
   </si>
   <si>
@@ -210,94 +207,119 @@
     <t>https://www.brickers.jp/?pid=24384220</t>
   </si>
   <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Technic, Axle 1L with Pin with Friction Ridges</t>
+  </si>
+  <si>
+    <t>Technic, Axle 7L</t>
+  </si>
+  <si>
+    <t>Technic, Axle 8L with Stop</t>
+  </si>
+  <si>
+    <t>Technic, Axle 9L</t>
+  </si>
+  <si>
+    <t>https://afrel-shop.com/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Dark Gray</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>https://www.brickers.jp/?pid=24384266</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=24445337</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25700131</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384272</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941292</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=33211954</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=33211980</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24640798</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25833089</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=33207247</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384279</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=60485614</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=111619379</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=24447131</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=24447302</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=35296360</t>
-  </si>
-  <si>
-    <t>Yellow</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=26488550</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384268</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=34693318</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384277</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>https://www.brickers.jp/?pid=25084889</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=24384268</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=34693318</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=24384277</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=24384279</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=33207247</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=25833089</t>
-  </si>
-  <si>
-    <t>Technic, Axle 1L with Pin with Friction Ridges</t>
-  </si>
-  <si>
-    <t>Technic, Axle 7L</t>
-  </si>
-  <si>
-    <t>Technic, Axle 8L with Stop</t>
-  </si>
-  <si>
-    <t>Technic, Axle 9L</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=24640798</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=33211980</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=33211954</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=54941292</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=24384272</t>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=25700131</t>
-  </si>
-  <si>
-    <t>https://afrel-shop.com/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Dark Gray</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>―</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://afrel-shop.com/shopdetail/000000000395</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -305,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +508,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -804,7 +845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,8 +972,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,9 +989,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -960,8 +1001,14 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -989,6 +1036,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1318,10 +1366,10 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
@@ -1330,14 +1378,14 @@
     <col min="2" max="2" width="66.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="5"/>
+    <col min="5" max="6" width="8.88671875" style="4"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="45.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1354,10 +1402,10 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1374,15 +1422,15 @@
       <c r="D3" s="2">
         <v>73</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>D3*E3</f>
         <v>365</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1398,14 +1446,14 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>80</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>160</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
+      <c r="H4" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1421,15 +1469,15 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>D5*E5</f>
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
+      <c r="H5" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1445,15 +1493,15 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>58</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>D6*E6</f>
         <v>116</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
+      <c r="H6" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1469,15 +1517,15 @@
       <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>123</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>D7*E7</f>
         <v>1476</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
+      <c r="H7" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1493,14 +1541,14 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>54</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>54</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
+      <c r="H8" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1516,14 +1564,14 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>21</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
+      <c r="H9" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1539,15 +1587,15 @@
       <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>163</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" ref="F10:F24" si="0">D10*E10</f>
         <v>652</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1563,15 +1611,15 @@
       <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>28</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>49</v>
+      <c r="H11" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1587,15 +1635,15 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>16</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
+      <c r="H12" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1603,7 +1651,7 @@
         <v>43093</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1611,15 +1659,15 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
+      <c r="H13" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1635,15 +1683,15 @@
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>38</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
+      <c r="H14" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1651,7 +1699,7 @@
         <v>44294</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1659,15 +1707,15 @@
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>53</v>
+      <c r="H15" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1675,7 +1723,7 @@
         <v>55013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1683,15 +1731,15 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>13</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>54</v>
+      <c r="H16" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1707,15 +1755,15 @@
       <c r="D17" s="2">
         <v>8</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>98</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>784</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>55</v>
+      <c r="H17" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1723,7 +1771,7 @@
         <v>60485</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1731,14 +1779,14 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>48</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1755,15 +1803,15 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>33</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>61</v>
+      <c r="H19" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1779,15 +1827,15 @@
       <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>348</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>1392</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>62</v>
+      <c r="H20" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1803,15 +1851,15 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>268</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>2680</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>63</v>
+      <c r="H21" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -1827,15 +1875,15 @@
       <c r="D22" s="2">
         <v>13</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>38</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>494</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>64</v>
+      <c r="H22" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1846,20 +1894,20 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>10</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
+      <c r="H23" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -1875,15 +1923,15 @@
       <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>12</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>66</v>
+      <c r="H24" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -1891,10 +1939,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
-      <c r="E26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="5">
         <f>SUM(F3:F24)</f>
         <v>8884</v>
       </c>
@@ -1904,34 +1952,34 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D28" s="2"/>
-      <c r="E28" s="4" t="s">
-        <v>67</v>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>1320</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f>D29*E29</f>
         <v>3960</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>35</v>
+      <c r="H29" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
@@ -1941,13 +1989,13 @@
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
@@ -1957,38 +2005,38 @@
         <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f>SUM(F29)</f>
         <v>3960</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="8">
+      <c r="E36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="7">
         <f>F26+F29</f>
         <v>12844</v>
       </c>
@@ -1998,6 +2046,33 @@
     <sortCondition ref="A3:A24"/>
   </sortState>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{C6384185-464F-4592-A316-A2A00094D931}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{9AAA0144-EDBE-460D-B5CF-979D392A43A5}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{FE3383EB-D0DF-4155-88F9-BBED7EE77F76}"/>
+    <hyperlink ref="H24" r:id="rId4" xr:uid="{02E22037-8B28-4087-AEB3-E1DA05DD0B00}"/>
+    <hyperlink ref="H23" r:id="rId5" xr:uid="{FE602329-C642-466D-8A38-070974D9F597}"/>
+    <hyperlink ref="H22" r:id="rId6" xr:uid="{2CF46389-3590-45BC-9236-7BF0DFE200EA}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{165DFC6F-A6C4-4FDC-8A66-20A71AE30A38}"/>
+    <hyperlink ref="H20" r:id="rId8" xr:uid="{9EC5C0A6-0ED2-4B72-AE52-B3E6170A5237}"/>
+    <hyperlink ref="H19" r:id="rId9" xr:uid="{72B12815-30D3-4271-8443-F3DB5519FA56}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{F9104F1E-0297-4634-85A2-5F8636061D3F}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{2DEC6946-45DD-46BC-AA76-0E99D411D1DF}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{9AD43660-9957-46DE-8A3A-298C95970336}"/>
+    <hyperlink ref="H6" r:id="rId13" xr:uid="{87D23575-8EB2-4CD1-AB90-43EE21CD6D14}"/>
+    <hyperlink ref="H7" r:id="rId14" xr:uid="{AF34C37C-DD65-47EC-AC24-C52D2F2A30AB}"/>
+    <hyperlink ref="H8" r:id="rId15" xr:uid="{491719DC-8E55-4E9C-A746-00FE17FEFF4C}"/>
+    <hyperlink ref="H9" r:id="rId16" xr:uid="{54C69807-C218-429D-B808-B03CEF136FC5}"/>
+    <hyperlink ref="H10" r:id="rId17" xr:uid="{E98534EC-751A-473B-9C2C-D14678CD7394}"/>
+    <hyperlink ref="H11" r:id="rId18" xr:uid="{C7FE68C3-C786-480D-ADD3-739DAB76F25D}"/>
+    <hyperlink ref="H13" r:id="rId19" xr:uid="{73FC137E-CE62-48B4-ACC0-755B46AD5BFE}"/>
+    <hyperlink ref="H14" r:id="rId20" xr:uid="{657A8122-F72C-43E3-A81C-C4D791ABED59}"/>
+    <hyperlink ref="H15" r:id="rId21" xr:uid="{A48DE3EC-988C-404A-A48F-5B5219820903}"/>
+    <hyperlink ref="H12" r:id="rId22" xr:uid="{122E497C-9FF6-4820-9DDD-65AC6BB9462B}"/>
+    <hyperlink ref="H29" r:id="rId23" xr:uid="{47EE04F4-EE61-4373-9979-173EB903D939}"/>
+    <hyperlink ref="E28" r:id="rId24" xr:uid="{2A6B1CAE-1392-4EB6-8D4A-2C25C39F61B5}"/>
+    <hyperlink ref="E1" r:id="rId25" xr:uid="{D73192EB-E2B9-4A8C-B611-6B94AEDE8998}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>